--- a/ig/ch-lab-order/ValueSet-ch-lab-vs-order-control.xlsx
+++ b/ig/ch-lab-order/ValueSet-ch-lab-vs-order-control.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from orderControlCode" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T13:35:09+00:00</t>
+    <t>2025-05-22T12:28:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-lab-order/ValueSet-ch-lab-vs-order-control.xlsx
+++ b/ig/ch-lab-order/ValueSet-ch-lab-vs-order-control.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Order Control Codes used in CH Lab-Order</t>
+    <t>Order Control Codes used in CH LAB-Order</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T12:28:53+00:00</t>
+    <t>2025-12-16T11:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
